--- a/test_data_plate1.xlsx
+++ b/test_data_plate1.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plate 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -177,7 +177,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -189,6 +189,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -229,10 +245,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -245,8 +263,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -525,7 +548,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -620,10 +643,10 @@
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="12">
         <v>23234</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="4">
@@ -646,10 +669,10 @@
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="12">
         <v>23234</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D10">
@@ -663,10 +686,10 @@
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="12">
         <v>23234</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D11">
@@ -680,10 +703,10 @@
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="12">
         <v>23234</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D12">
@@ -697,10 +720,10 @@
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="12">
         <v>23234</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="4">
@@ -723,10 +746,10 @@
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="12">
         <v>23234</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D14">
@@ -740,10 +763,10 @@
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="12">
         <v>23234</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D15">
@@ -757,10 +780,10 @@
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="12">
         <v>23234</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D16">
@@ -774,10 +797,10 @@
       <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="12">
         <v>28531</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="4">
@@ -800,10 +823,10 @@
       <c r="A18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="12">
         <v>28531</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D18">
@@ -820,10 +843,10 @@
       <c r="A19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="12">
         <v>28531</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D19">
@@ -840,10 +863,10 @@
       <c r="A20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="12">
         <v>28531</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D20">
@@ -860,10 +883,10 @@
       <c r="A21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="12">
         <v>28531</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D21" s="4">
@@ -886,10 +909,10 @@
       <c r="A22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="12">
         <v>28531</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D22">
@@ -906,10 +929,10 @@
       <c r="A23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="12">
         <v>28531</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D23">
@@ -926,10 +949,10 @@
       <c r="A24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="12">
         <v>28531</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D24">
@@ -946,10 +969,10 @@
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="12">
         <v>28729</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="4">
@@ -972,10 +995,10 @@
       <c r="A26" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="12">
         <v>28729</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D26">
@@ -992,10 +1015,10 @@
       <c r="A27" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="12">
         <v>28729</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D27">
@@ -1012,10 +1035,10 @@
       <c r="A28" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="12">
         <v>28729</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D28">
@@ -1032,10 +1055,10 @@
       <c r="A29" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="12">
         <v>28729</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D29" s="4">
@@ -1058,10 +1081,10 @@
       <c r="A30" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="12">
         <v>28729</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D30">
@@ -1078,10 +1101,10 @@
       <c r="A31" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="12">
         <v>28729</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D31">
@@ -1098,10 +1121,10 @@
       <c r="A32" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="12">
         <v>28729</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D32">
@@ -1118,10 +1141,10 @@
       <c r="A33" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="12">
         <v>28729</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="14" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="4">
@@ -1144,10 +1167,10 @@
       <c r="A34" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="12">
         <v>28729</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="14" t="s">
         <v>48</v>
       </c>
       <c r="D34">
@@ -1164,10 +1187,10 @@
       <c r="A35" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="12">
         <v>28729</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="14" t="s">
         <v>48</v>
       </c>
       <c r="D35">
@@ -1184,10 +1207,10 @@
       <c r="A36" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="12">
         <v>28729</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="14" t="s">
         <v>48</v>
       </c>
       <c r="D36">
@@ -1202,5 +1225,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/test_data_plate1.xlsx
+++ b/test_data_plate1.xlsx
@@ -155,9 +155,6 @@
     <t>28729 V3 100000</t>
   </si>
   <si>
-    <t>Patient ID</t>
-  </si>
-  <si>
     <t>Visit</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>V3</t>
+  </si>
+  <si>
+    <t>PatientID</t>
   </si>
 </sst>
 </file>
@@ -548,7 +548,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -562,13 +562,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -647,7 +647,7 @@
         <v>23234</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="4">
         <v>100</v>
@@ -673,7 +673,7 @@
         <v>23234</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10">
         <v>1000</v>
@@ -690,7 +690,7 @@
         <v>23234</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11">
         <v>10000</v>
@@ -707,7 +707,7 @@
         <v>23234</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12">
         <v>100000</v>
@@ -724,7 +724,7 @@
         <v>23234</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="4">
         <v>100</v>
@@ -750,7 +750,7 @@
         <v>23234</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14">
         <v>1000</v>
@@ -767,7 +767,7 @@
         <v>23234</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15">
         <v>10000</v>
@@ -784,7 +784,7 @@
         <v>23234</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16">
         <v>100000</v>
@@ -801,7 +801,7 @@
         <v>28531</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="4">
         <v>100</v>
@@ -827,7 +827,7 @@
         <v>28531</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18">
         <v>1000</v>
@@ -847,7 +847,7 @@
         <v>28531</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19">
         <v>10000</v>
@@ -867,7 +867,7 @@
         <v>28531</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20">
         <v>100000</v>
@@ -887,7 +887,7 @@
         <v>28531</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="4">
         <v>100</v>
@@ -913,7 +913,7 @@
         <v>28531</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22">
         <v>1000</v>
@@ -933,7 +933,7 @@
         <v>28531</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23">
         <v>10000</v>
@@ -953,7 +953,7 @@
         <v>28531</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24">
         <v>100000</v>
@@ -973,7 +973,7 @@
         <v>28729</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="4">
         <v>100</v>
@@ -999,7 +999,7 @@
         <v>28729</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26">
         <v>1000</v>
@@ -1019,7 +1019,7 @@
         <v>28729</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27">
         <v>10000</v>
@@ -1039,7 +1039,7 @@
         <v>28729</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28">
         <v>100000</v>
@@ -1059,7 +1059,7 @@
         <v>28729</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" s="4">
         <v>100</v>
@@ -1085,7 +1085,7 @@
         <v>28729</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D30">
         <v>1000</v>
@@ -1105,7 +1105,7 @@
         <v>28729</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31">
         <v>10000</v>
@@ -1125,7 +1125,7 @@
         <v>28729</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D32">
         <v>100000</v>
@@ -1145,7 +1145,7 @@
         <v>28729</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D33" s="4">
         <v>100</v>
@@ -1171,7 +1171,7 @@
         <v>28729</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D34">
         <v>1000</v>
@@ -1191,7 +1191,7 @@
         <v>28729</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D35">
         <v>10000</v>
@@ -1211,7 +1211,7 @@
         <v>28729</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D36">
         <v>100000</v>
